--- a/windows-forms-parte-1-arquivos-aula-3/Form 3.1.xlsx
+++ b/windows-forms-parte-1-arquivos-aula-3/Form 3.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\CURSOS\IOT\POC\WindowsFormsAlura\windows-forms-parte-1-arquivos-aula-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFE1E77-3100-49E5-B419-B0F0806867C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48034F9C-51CE-4854-B7DE-00ADA3772149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="8304" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,18 +180,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -212,13 +206,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +432,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="D27" sqref="A23:D27"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -464,290 +456,290 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
     </row>
